--- a/日志/日志.xlsx
+++ b/日志/日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -45,7 +45,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.浏览一下买的两本书，2完成php的错误与异常</t>
+    <t>1.每天读哪本书读多少页2.每天看哪个文档，掌握几个函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.程序员思维读到50页，2完成php的错误与异常 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成了昨天制定的任务，效率还是有待提高，要尽快找到适合自己的工作计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商讨确定抓取的相关细则 2程序员思维读到100页。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化目录结构，熟悉wecenter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将wecenter的手机显示看明白2.私信功能代码进行熟悉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -460,119 +480,136 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>42123</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>42124</v>
+        <v>42123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>42125</v>
+        <v>42124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>42126</v>
+        <v>42125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>42127</v>
+        <v>42126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>42128</v>
+        <v>42127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>42129</v>
+        <v>42128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>42130</v>
+        <v>42129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>42131</v>
+        <v>42130</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>42132</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>42133</v>
+        <v>42132</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>42134</v>
+        <v>42133</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>42135</v>
+        <v>42134</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1">
-        <v>42136</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1">
-        <v>42137</v>
+        <v>42136</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1">
-        <v>42138</v>
+        <v>42137</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1">
-        <v>42139</v>
+        <v>42138</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1">
-        <v>42140</v>
+        <v>42139</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1">
-        <v>42141</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1">
+        <v>42141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
         <v>42142</v>
       </c>
     </row>

--- a/日志/日志.xlsx
+++ b/日志/日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>1.将wecenter的手机显示看明白2.私信功能代码进行熟悉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成性能测试的学习2.讲程序员思维看到100页左右</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +471,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -532,15 +544,27 @@
       <c r="A8" s="1">
         <v>42126</v>
       </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>42127</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>42128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
